--- a/php code libraries/Laravel DRY v2.xlsx
+++ b/php code libraries/Laravel DRY v2.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8340" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="15" r:id="rId1"/>
     <sheet name="AutoLaravel v1" sheetId="6" r:id="rId2"/>
-    <sheet name="amChartsv1" sheetId="17" r:id="rId3"/>
-    <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId4"/>
-    <sheet name="FormGeneratorV1" sheetId="12" r:id="rId5"/>
-    <sheet name="inline ajax edit v1" sheetId="14" r:id="rId6"/>
+    <sheet name="Laravel" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="FormGeneratorV1" sheetId="12" r:id="rId4"/>
+    <sheet name="inline ajax edit v1" sheetId="14" r:id="rId5"/>
+    <sheet name="amChartsv1" sheetId="17" r:id="rId6"/>
     <sheet name="laravelAuth v1" sheetId="7" r:id="rId7"/>
     <sheet name="Laravel mail v1" sheetId="10" r:id="rId8"/>
     <sheet name="Controller generator" sheetId="11" state="hidden" r:id="rId9"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="505">
   <si>
     <t>Fastest way of starting laravel 4 project:</t>
   </si>
@@ -412,12 +412,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>other3</t>
-  </si>
-  <si>
-    <t>other4</t>
   </si>
   <si>
     <t>other5</t>
@@ -921,9 +915,6 @@
     <t>';</t>
   </si>
   <si>
-    <t>$.post(route,data,function(result){     });</t>
-  </si>
-  <si>
     <t>controller (no suffix)</t>
   </si>
   <si>
@@ -1380,9 +1371,6 @@
     <t>taskController</t>
   </si>
   <si>
-    <t>minitasks</t>
-  </si>
-  <si>
     <t>thetask_id</t>
   </si>
   <si>
@@ -1402,9 +1390,6 @@
   </si>
   <si>
     <t>tablename</t>
-  </si>
-  <si>
-    <t>ideas</t>
   </si>
   <si>
     <t>Javascript</t>
@@ -1628,9 +1613,6 @@
     </r>
   </si>
   <si>
-    <t>cd ../../wamp/www/github</t>
-  </si>
-  <si>
     <t>"laravel/framework": "4.0.*"</t>
   </si>
   <si>
@@ -1652,15 +1634,9 @@
     <t>Running a virtual server from l4 built in server</t>
   </si>
   <si>
-    <t>smartChartv1</t>
-  </si>
-  <si>
     <t>charts</t>
   </si>
   <si>
-    <t>base</t>
-  </si>
-  <si>
     <t>HTML tips</t>
   </si>
   <si>
@@ -1688,28 +1664,70 @@
     <t>&lt;script src="amcharts/serial.js" type="text/javascript"&gt;&lt;/script&gt;</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>filled cel detector</t>
+  </si>
+  <si>
+    <t>chapters</t>
+  </si>
+  <si>
+    <t>Order by</t>
+  </si>
+  <si>
+    <t>List of fields to choose "orderBy"</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>pray</t>
+  </si>
+  <si>
+    <t>rosary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    $.post(route,data,function(result){     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   });</t>
+  </si>
+  <si>
+    <t>').val('');</t>
+  </si>
+  <si>
+    <t>// right column</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>farenheit1</t>
-  </si>
-  <si>
-    <t>farenheit2</t>
-  </si>
-  <si>
-    <t>farenheit3</t>
-  </si>
-  <si>
-    <t>filled cel detector</t>
+    <t>tinyinteger</t>
   </si>
   <si>
     <t>measurements</t>
+  </si>
+  <si>
+    <t>faustina2</t>
+  </si>
+  <si>
+    <t>Type of project</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>github</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1912,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1967,8 +1985,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2144,12 +2180,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,7 +2265,16 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2244,8 +2307,10 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF660066"/>
+      <color rgb="FF660033"/>
+      <color rgb="FF00642D"/>
       <color rgb="FF08233A"/>
-      <color rgb="FF00642D"/>
       <color rgb="FF3B0731"/>
       <color rgb="FF00FF00"/>
     </mruColors>
@@ -2582,11 +2647,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="61" t="s">
-        <v>438</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="67" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2603,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="G27:H29"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,142 +2679,142 @@
   <sheetData>
     <row r="1" spans="1:7" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G1" s="45" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E3" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="F3" s="45" t="s">
-        <v>380</v>
-      </c>
       <c r="G3" s="45" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G5" s="44" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="49" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
@@ -2759,7 +2824,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="49" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
@@ -2769,22 +2834,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="13" t="str">
@@ -2794,18 +2859,18 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C21" s="9"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="46" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -2822,7 +2887,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="46" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -2839,7 +2904,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="47" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -2861,45 +2926,45 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G33" s="13" t="s">
         <v>273</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="13" t="str">
         <f>LEFT(D34,LEN(D34)-1)</f>
-        <v>thetask</v>
+        <v>chart</v>
       </c>
       <c r="G34" s="13" t="str">
         <f>UPPER(LEFT(F34,1))&amp;RIGHT(F34,LEN(F34)-1)</f>
-        <v>Thetask</v>
+        <v>Chart</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="13"/>
@@ -2907,27 +2972,27 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>403</v>
+        <v>486</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="13" t="str">
         <f>LEFT(D36,LEN(D36)-1)</f>
-        <v>minitask</v>
+        <v>chapter</v>
       </c>
       <c r="G36" s="13" t="str">
         <f>UPPER(LEFT(F36,1))&amp;RIGHT(F36,LEN(F36)-1)</f>
-        <v>Minitask</v>
+        <v>Chapter</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="13"/>
@@ -2935,52 +3000,52 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D42" s="18" t="str">
         <f>F34&amp;"_id"</f>
-        <v>thetask_id</v>
+        <v>chart_id</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="50" t="str">
         <f>C2&amp;G34&amp;".php"</f>
-        <v>//app/models/Thetask.php</v>
+        <v>//app/models/Chart.php</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D46" s="18" t="str">
         <f>C3&amp;F36&amp;C4</f>
-        <v>public function minitask () {</v>
+        <v>public function chapter () {</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D47" s="18" t="str">
         <f>C5&amp;G36&amp;"');"</f>
-        <v>return $this-&gt;hasMany('Minitask');</v>
+        <v>return $this-&gt;hasMany('Chapter');</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -2990,25 +3055,25 @@
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="50" t="str">
         <f>C2&amp;G36&amp;".php"</f>
-        <v>//app/models/Minitask.php</v>
+        <v>//app/models/Chapter.php</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D52" s="18" t="str">
         <f>C3&amp;F34&amp;C4</f>
-        <v>public function thetask () {</v>
+        <v>public function chart () {</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D53" s="18" t="str">
         <f>D1&amp;G34&amp;"');"</f>
-        <v>return $this-&gt;belongsTo('Thetask');</v>
+        <v>return $this-&gt;belongsTo('Chart');</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -3018,52 +3083,52 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D58" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D59" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D60" s="18" t="str">
         <f>"$"&amp;F34&amp;A5</f>
-        <v>$thetask=Project::all();</v>
+        <v>$chart=Project::all();</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D61" s="18" t="str">
         <f>B1&amp;"$"&amp;F34&amp;B2</f>
-        <v>foreach ($thetask as $value){</v>
+        <v>foreach ($chart as $value){</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D62" s="18" t="str">
         <f>"     "&amp;B3&amp;G34&amp;B4</f>
-        <v xml:space="preserve">     $row=Thetask::find($value-&gt;id);</v>
+        <v xml:space="preserve">     $row=Chart::find($value-&gt;id);</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -3072,31 +3137,31 @@
         <v xml:space="preserve">     $owner=$value-&gt;thetask_id;</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D64" s="18" t="str">
         <f>"     "&amp;C1&amp;F36&amp;";"</f>
-        <v xml:space="preserve">     $allowed=$row-&gt;minitask;</v>
+        <v xml:space="preserve">     $allowed=$row-&gt;chapter;</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D65" s="18" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D67" s="18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -3107,108 +3172,108 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D69" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D70" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D71" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D72" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D73" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D74" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D75" s="18" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D76" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D77" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D78" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D79" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D80" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D81" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D82" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D84" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D85" s="18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E95" s="13" t="str">
         <f>LEFT(C95,LEN(C95)-1)</f>
@@ -3221,10 +3286,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E96" s="13" t="str">
         <f>LEFT(C96,LEN(C96)-1)</f>
@@ -3237,33 +3302,33 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E97" s="13"/>
       <c r="F97" s="13"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E98" s="13"/>
       <c r="F98" s="13"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3280,12 +3345,12 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B104" s="23" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="55" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B107" s="55"/>
       <c r="C107" s="55"/>
@@ -3298,7 +3363,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="55" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B108" s="55"/>
       <c r="C108" s="55"/>
@@ -3311,18 +3376,18 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F109" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D110" s="48" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E110" s="48"/>
       <c r="F110" s="13" t="str">
@@ -3336,10 +3401,10 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D111" s="48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E111" s="48"/>
       <c r="F111" s="13"/>
@@ -3347,10 +3412,10 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D112" s="48" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E112" s="48"/>
       <c r="F112" s="13" t="str">
@@ -3364,10 +3429,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D113" s="48" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E113" s="48"/>
       <c r="F113" s="13"/>
@@ -3375,10 +3440,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D114" s="48" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E114" s="48"/>
       <c r="F114" s="13" t="str">
@@ -3392,10 +3457,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D115" s="48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E115" s="48"/>
       <c r="F115" s="13"/>
@@ -3403,10 +3468,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D116" s="48" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E116" s="48"/>
       <c r="F116" s="13"/>
@@ -3414,10 +3479,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D117" s="48" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E117" s="48"/>
       <c r="F117" s="13"/>
@@ -3425,10 +3490,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D118" s="48" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E118" s="48"/>
       <c r="F118" s="13"/>
@@ -3436,7 +3501,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3450,7 +3515,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3461,7 +3526,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B126" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3496,7 +3561,7 @@
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="18" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
@@ -3511,12 +3576,12 @@
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
@@ -3545,12 +3610,12 @@
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="18" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="18" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
@@ -3570,7 +3635,7 @@
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="23" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3593,22 +3658,22 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -3625,7 +3690,7 @@
     </row>
     <row r="8" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3637,7 +3702,7 @@
     </row>
     <row r="10" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3656,32 +3721,32 @@
     </row>
     <row r="13" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -3705,12 +3770,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3721,10 +3786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:S120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3736,43 +3801,43 @@
   <sheetData>
     <row r="1" spans="1:7" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>102</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -3780,7 +3845,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5" s="15" t="str">
         <f>"_table --fields="</f>
@@ -3792,20 +3857,20 @@
         <v>101</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -3813,15 +3878,24 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>118</v>
-      </c>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>126</v>
+        <v>321</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -3829,8 +3903,9 @@
       <c r="B14" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>471</v>
+      <c r="C14" s="19" t="str">
+        <f>+"cd c:\wamp\www\"&amp;C13</f>
+        <v>cd c:\wamp\www\practice</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -3842,8 +3917,8 @@
         <v>99</v>
       </c>
       <c r="C15" s="19" t="str">
-        <f>A1&amp;C13&amp;A2</f>
-        <v>composer create-project laravel/laravel smartChartv1 --prefer-dist</v>
+        <f>A1&amp;C12&amp;A2</f>
+        <v>composer create-project laravel/laravel faustina2 --prefer-dist</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -3855,8 +3930,8 @@
         <v>99</v>
       </c>
       <c r="C16" s="19" t="str">
-        <f>"cd "&amp;C13</f>
-        <v>cd smartChartv1</v>
+        <f>"cd "&amp;C12</f>
+        <v>cd faustina2</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -3889,21 +3964,21 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D21" s="60"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -3913,12 +3988,12 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" s="21" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" s="12" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D26" s="18"/>
     </row>
@@ -3934,7 +4009,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -3951,7 +4026,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -3992,7 +4067,7 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
@@ -4009,12 +4084,12 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -4031,45 +4106,45 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C50" s="23"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C51" s="23" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C52" s="23" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C53" s="23"/>
       <c r="E53" s="23"/>
@@ -4080,477 +4155,420 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C55" s="23"/>
       <c r="D55" s="9" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H55" s="23" t="str">
         <f>D55</f>
-        <v>charts</v>
+        <v>pray</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C56" s="23"/>
       <c r="D56" s="9" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="E56" s="23" t="str">
         <f>E55&amp;D55&amp;"/"</f>
-        <v>app/views/charts/</v>
+        <v>app/views/pray/</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="H56" s="23" t="str">
         <f>D56&amp;".blade.php"</f>
-        <v>base.blade.php</v>
+        <v>rosary.blade.php</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="23"/>
-      <c r="E57" s="23"/>
+      <c r="B57" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="19" t="str">
+        <f>"mkdir "&amp;E55&amp;D55</f>
+        <v>mkdir app/views/pray</v>
+      </c>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="23"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C58" s="23" t="str">
-        <f>E56&amp;H56</f>
-        <v>app/views/charts/base.blade.php</v>
-      </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="10" t="s">
-        <v>466</v>
-      </c>
+      <c r="B58" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="19" t="str">
+        <f>"php artisan generate:view --path="&amp;B3&amp;"app/views/"&amp;D55&amp;B3&amp;" "&amp;D56</f>
+        <v>php artisan generate:view --path="app/views/pray" rosary</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="23"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C59" s="23"/>
       <c r="E59" s="23"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="23" t="s">
-        <v>468</v>
+      <c r="B60" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C60" s="23" t="str">
+        <f>E56&amp;H56</f>
+        <v>app/views/pray/rosary.blade.php</v>
+      </c>
+      <c r="E60" s="23"/>
+      <c r="F60" s="10" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>138</v>
-      </c>
+      <c r="C61" s="23"/>
+      <c r="E61" s="23"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="21" t="s">
-        <v>154</v>
+      <c r="C62" s="23" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="18" t="s">
-        <v>155</v>
+      <c r="C63" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D64" s="18" t="s">
-        <v>139</v>
+      <c r="C64" s="21" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C65" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C66" s="23"/>
-      <c r="E66" s="23"/>
+      <c r="D66" s="18" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="C67" s="23"/>
-      <c r="E67" s="23"/>
+      <c r="C67" s="18" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D68" s="9" t="str">
+      <c r="C68" s="23"/>
+      <c r="E68" s="23"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C69" s="23"/>
+      <c r="E69" s="23"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="28" t="str">
         <f>D55</f>
-        <v>charts</v>
-      </c>
-      <c r="F68" s="20" t="s">
+        <v>pray</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G70" s="13" t="str">
+        <f>UPPER(LEFT(D70,1))&amp;RIGHT(D70,LEN(D70)-1)&amp;"Controller"</f>
+        <v>PrayController</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="19" t="str">
+        <f>A4&amp;B5&amp;G70</f>
+        <v>php artisan generate:controller PrayController</v>
+      </c>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="23"/>
+      <c r="E72" s="23"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G68" s="13" t="str">
-        <f>UPPER(LEFT(D68,1))&amp;RIGHT(D68,LEN(D68)-1)&amp;"Controller"</f>
-        <v>ChartsController</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" s="19" t="str">
-        <f>A4&amp;B5&amp;G68</f>
-        <v>php artisan generate:controller ChartsController</v>
-      </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="23"/>
-      <c r="E70" s="23"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D71" s="10" t="str">
+      <c r="D73" s="10" t="str">
         <f>D56</f>
-        <v>base</v>
-      </c>
-      <c r="G71" s="13" t="str">
-        <f>UPPER(LEFT(D71,1))&amp;RIGHT(D71,LEN(D71)-1)</f>
-        <v>Base</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C72" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D72" s="10" t="str">
-        <f>" app/Controllers/"&amp;G68&amp;".php"</f>
-        <v xml:space="preserve"> app/Controllers/ChartsController.php</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D73" s="18" t="str">
+        <v>rosary</v>
+      </c>
+      <c r="G73" s="13" t="str">
+        <f>UPPER(LEFT(D73,1))&amp;RIGHT(D73,LEN(D73)-1)</f>
+        <v>Rosary</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" s="10" t="str">
+        <f>" app/Controllers/"&amp;G70&amp;".php"</f>
+        <v xml:space="preserve"> app/Controllers/PrayController.php</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D75" s="18" t="str">
         <f>"public function getIndex() {"</f>
         <v>public function getIndex() {</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D74" s="18" t="str">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D76" s="18" t="str">
         <f>"    return View::make('"&amp;D55&amp;IF(D55&lt;&gt;"",".","")&amp;D56&amp;"'"&amp;")"</f>
-        <v xml:space="preserve">    return View::make('charts.base')</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D75" s="18" t="str">
+        <v xml:space="preserve">    return View::make('pray.rosary')</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D77" s="18" t="str">
         <f>"      -&gt;with('title','"&amp;D56&amp;"');"</f>
-        <v xml:space="preserve">      -&gt;with('title','base');</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D76" s="18" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="23"/>
-      <c r="E77" s="23"/>
+        <v xml:space="preserve">      -&gt;with('title','rosary');</v>
+      </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C78" s="23"/>
-      <c r="E78" s="23"/>
+      <c r="D78" s="18" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C79" s="23"/>
-      <c r="D79" s="18" t="str">
-        <f>B6&amp;D68&amp;C1&amp;G68&amp;C2</f>
-        <v>Route::controller('charts','ChartsController');</v>
-      </c>
       <c r="E79" s="23"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="10" t="s">
+        <v>465</v>
+      </c>
       <c r="C80" s="23"/>
       <c r="E80" s="23"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B83" s="10" t="s">
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C81" s="23"/>
+      <c r="D81" s="18" t="str">
+        <f>B6&amp;D70&amp;C1&amp;G70&amp;C2</f>
+        <v>Route::controller('pray','PrayController');</v>
+      </c>
+      <c r="E81" s="23"/>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C82" s="23"/>
+      <c r="E82" s="23"/>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B85" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D83" s="9"/>
-      <c r="F83" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B84" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D84" s="9"/>
-      <c r="F84" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M84" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B85" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="C85" s="9" t="s">
-        <v>70</v>
+        <v>469</v>
       </c>
       <c r="D85" s="9"/>
       <c r="F85" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B86" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="F86" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M86" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B87" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="9"/>
+      <c r="F87" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M85" s="13" t="str">
-        <f>IF(SUM(J90:K99)&gt;0,B2&amp;P99&amp;Q99&amp;B3,"")</f>
-        <v>--fields="time:timestamp,farenheit1:float,farenheit2:float,farenheit3:float"</v>
-      </c>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="10" t="s">
+      <c r="M87" s="13" t="str">
+        <f>IF(SUM(J92:K101)&gt;0,B2&amp;P101&amp;Q101&amp;B3,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B89" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B88" s="10" t="s">
+    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B90" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D88" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="F88" s="13" t="str">
-        <f>LEFT(D88,LEN(D88)-1)</f>
+      <c r="D90" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="F90" s="13" t="str">
+        <f>LEFT(D90,LEN(D90)-1)</f>
         <v>measurement</v>
       </c>
-      <c r="G88" s="13" t="str">
-        <f>UPPER(LEFT(F88,1))&amp;RIGHT(F88,LEN(F88)-1)</f>
+      <c r="G90" s="13" t="str">
+        <f>UPPER(LEFT(F90,1))&amp;RIGHT(F90,LEN(F90)-1)</f>
         <v>Measurement</v>
       </c>
     </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C89" s="10" t="s">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C91" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D91" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="G91" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="H89" s="10" t="s">
+      <c r="H91" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J89" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="K89" s="13"/>
-      <c r="M89" s="13" t="s">
+      <c r="J91" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="K91" s="13"/>
+      <c r="M91" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="N89" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B90" s="10" t="s">
+      <c r="N91" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="S91" s="13" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B92" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="F90" s="10" t="s">
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="F92" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="J90" s="13">
-        <f>IF(C90="",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K90" s="13">
-        <f>IF(G90="",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M90" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="N90" s="13" t="str">
-        <f>IF(AND(C90&lt;&gt;"",D90&lt;&gt;""),IF(N89="concatenator1","",",")&amp;C90&amp;":"&amp;D90,"")</f>
-        <v>time:timestamp</v>
-      </c>
-      <c r="O90" s="13" t="str">
-        <f>IF(AND(G90&lt;&gt;"",H90&lt;&gt;""),","&amp;G90&amp;":"&amp;H90,"")</f>
-        <v/>
-      </c>
-      <c r="P90" s="13" t="str">
-        <f>P89&amp;N90</f>
-        <v>time:timestamp</v>
-      </c>
-      <c r="Q90" s="13" t="str">
-        <f>Q89&amp;O90</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B91" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="J91" s="13">
-        <f t="shared" ref="J91:J99" si="0">IF(C91="",0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K91" s="13">
-        <f t="shared" ref="K91:K99" si="1">IF(G91="",0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M91" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="N91" s="13" t="str">
-        <f t="shared" ref="N91:N99" si="2">IF(AND(C91&lt;&gt;"",D91&lt;&gt;""),IF(N90="concatenator1","",",")&amp;C91&amp;":"&amp;D91,"")</f>
-        <v>,farenheit1:float</v>
-      </c>
-      <c r="O91" s="13" t="str">
-        <f t="shared" ref="O91:O99" si="3">IF(AND(G91&lt;&gt;"",H91&lt;&gt;""),","&amp;G91&amp;":"&amp;H91,"")</f>
-        <v/>
-      </c>
-      <c r="P91" s="13" t="str">
-        <f t="shared" ref="P91:P99" si="4">P90&amp;N91</f>
-        <v>time:timestamp,farenheit1:float</v>
-      </c>
-      <c r="Q91" s="13" t="str">
-        <f t="shared" ref="Q91:Q99" si="5">Q90&amp;O91</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B92" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="J92" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IF(C92="",0,1)</f>
+        <v>0</v>
       </c>
       <c r="K92" s="13">
-        <f t="shared" si="1"/>
+        <f>IF(G92="",0,1)</f>
         <v>0</v>
       </c>
       <c r="M92" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="N92" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>,farenheit2:float</v>
-      </c>
-      <c r="O92" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P92" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>time:timestamp,farenheit1:float,farenheit2:float</v>
-      </c>
-      <c r="Q92" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="N92" s="70" t="str">
+        <f>IF(AND(C92&lt;&gt;"",D92&lt;&gt;""),IF(N91="concatenator1","",",")&amp;C92&amp;":"&amp;D92,"")</f>
+        <v/>
+      </c>
+      <c r="O92" s="70" t="str">
+        <f>IF(AND(G92&lt;&gt;"",H92&lt;&gt;""),","&amp;G92&amp;":"&amp;H92,"")</f>
+        <v/>
+      </c>
+      <c r="P92" s="70" t="str">
+        <f>P91&amp;N92</f>
+        <v/>
+      </c>
+      <c r="Q92" s="70" t="str">
+        <f>Q91&amp;O92</f>
+        <v/>
+      </c>
+      <c r="S92" s="70" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>492</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
       <c r="F93" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="J93" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="J93:J101" si="0">IF(C93="",0,1)</f>
+        <v>0</v>
       </c>
       <c r="K93" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K93:K101" si="1">IF(G93="",0,1)</f>
         <v>0</v>
       </c>
       <c r="M93" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="N93" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>,farenheit3:float</v>
-      </c>
-      <c r="O93" s="13" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P93" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>time:timestamp,farenheit1:float,farenheit2:float,farenheit3:float</v>
-      </c>
-      <c r="Q93" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="N93" s="70" t="str">
+        <f t="shared" ref="N93:N101" si="2">IF(AND(C93&lt;&gt;"",D93&lt;&gt;""),IF(N92="concatenator1","",",")&amp;C93&amp;":"&amp;D93,"")</f>
+        <v/>
+      </c>
+      <c r="O93" s="70" t="str">
+        <f t="shared" ref="O93:O101" si="3">IF(AND(G93&lt;&gt;"",H93&lt;&gt;""),","&amp;G93&amp;":"&amp;H93,"")</f>
+        <v/>
+      </c>
+      <c r="P93" s="70" t="str">
+        <f t="shared" ref="P93:P101" si="4">P92&amp;N93</f>
+        <v/>
+      </c>
+      <c r="Q93" s="70" t="str">
+        <f t="shared" ref="Q93:Q101" si="5">Q92&amp;O93</f>
+        <v/>
+      </c>
+      <c r="S93" s="70" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="F94" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
@@ -4563,33 +4581,33 @@
         <v>0</v>
       </c>
       <c r="M94" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="N94" s="13" t="str">
+        <v>107</v>
+      </c>
+      <c r="N94" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O94" s="13" t="str">
+      <c r="O94" s="70" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P94" s="13" t="str">
+      <c r="P94" s="70" t="str">
         <f t="shared" si="4"/>
-        <v>time:timestamp,farenheit1:float,farenheit2:float,farenheit3:float</v>
-      </c>
-      <c r="Q94" s="13" t="str">
+        <v/>
+      </c>
+      <c r="Q94" s="70" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="F95" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
@@ -4602,33 +4620,33 @@
         <v>0</v>
       </c>
       <c r="M95" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="N95" s="13" t="str">
+        <v>108</v>
+      </c>
+      <c r="N95" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O95" s="13" t="str">
+      <c r="O95" s="70" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P95" s="13" t="str">
+      <c r="P95" s="70" t="str">
         <f t="shared" si="4"/>
-        <v>time:timestamp,farenheit1:float,farenheit2:float,farenheit3:float</v>
-      </c>
-      <c r="Q95" s="13" t="str">
+        <v/>
+      </c>
+      <c r="Q95" s="70" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="F96" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -4641,33 +4659,33 @@
         <v>0</v>
       </c>
       <c r="M96" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="N96" s="13" t="str">
+        <v>483</v>
+      </c>
+      <c r="N96" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O96" s="13" t="str">
+      <c r="O96" s="70" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P96" s="13" t="str">
+      <c r="P96" s="70" t="str">
         <f t="shared" si="4"/>
-        <v>time:timestamp,farenheit1:float,farenheit2:float,farenheit3:float</v>
-      </c>
-      <c r="Q96" s="13" t="str">
+        <v/>
+      </c>
+      <c r="Q96" s="70" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="F97" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
@@ -4680,33 +4698,33 @@
         <v>0</v>
       </c>
       <c r="M97" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="N97" s="13" t="str">
+        <v>484</v>
+      </c>
+      <c r="N97" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O97" s="13" t="str">
+      <c r="O97" s="70" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P97" s="13" t="str">
+      <c r="P97" s="70" t="str">
         <f t="shared" si="4"/>
-        <v>time:timestamp,farenheit1:float,farenheit2:float,farenheit3:float</v>
-      </c>
-      <c r="Q97" s="13" t="str">
+        <v/>
+      </c>
+      <c r="Q97" s="70" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="98" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="F98" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
@@ -4719,33 +4737,33 @@
         <v>0</v>
       </c>
       <c r="M98" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="N98" s="13" t="str">
+        <v>498</v>
+      </c>
+      <c r="N98" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O98" s="13" t="str">
+      <c r="O98" s="70" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P98" s="13" t="str">
+      <c r="P98" s="70" t="str">
         <f t="shared" si="4"/>
-        <v>time:timestamp,farenheit1:float,farenheit2:float,farenheit3:float</v>
-      </c>
-      <c r="Q98" s="13" t="str">
+        <v/>
+      </c>
+      <c r="Q98" s="70" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="F99" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
@@ -4758,147 +4776,228 @@
         <v>0</v>
       </c>
       <c r="M99" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="N99" s="13" t="str">
+        <v>499</v>
+      </c>
+      <c r="N99" s="70" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O99" s="13" t="str">
+      <c r="O99" s="70" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P99" s="13" t="str">
+      <c r="P99" s="70" t="str">
         <f t="shared" si="4"/>
-        <v>time:timestamp,farenheit1:float,farenheit2:float,farenheit3:float</v>
-      </c>
-      <c r="Q99" s="13" t="str">
+        <v/>
+      </c>
+      <c r="Q99" s="70" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B102" s="10" t="s">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B100" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="F100" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="J100" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K100" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N100" s="70" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O100" s="70" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P100" s="70" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q100" s="70" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B101" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="F101" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="J101" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N101" s="70" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O101" s="70" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P101" s="70" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q101" s="70" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B104" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B103" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C103" s="19" t="str">
-        <f>A4&amp;A5&amp;A6&amp;D88&amp;B1&amp;M85</f>
-        <v>php artisan generate:migration create_measurements_table --fields="time:timestamp,farenheit1:float,farenheit2:float,farenheit3:float"</v>
-      </c>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B104" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
     </row>
     <row r="105" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B105" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C105" s="19" t="str">
-        <f>A4&amp;B4&amp;G88</f>
-        <v>php artisan generate:model Measurement</v>
+        <f>A4&amp;A5&amp;A6&amp;D90&amp;B1&amp;M87</f>
+        <v xml:space="preserve">php artisan generate:migration create_measurements_table </v>
       </c>
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
       <c r="G105" s="19"/>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B108" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B109" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13" t="str">
-        <f>D88</f>
-        <v>measurements</v>
-      </c>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B106" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B107" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" s="19" t="str">
+        <f>A4&amp;B4&amp;G90</f>
+        <v>php artisan generate:model Measurement</v>
+      </c>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>451</v>
+        <v>319</v>
       </c>
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B111" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D111" s="10" t="s">
+      <c r="B111" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13" t="str">
+        <f>D90</f>
+        <v>measurements</v>
+      </c>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B112" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D113" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B112" s="19" t="s">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C112" s="19" t="str">
-        <f>C3&amp;D110&amp;C4&amp;D109&amp;C5&amp;C6&amp;D110&amp;":"&amp;D111&amp;C6</f>
+      <c r="C114" s="19" t="str">
+        <f>C3&amp;D112&amp;C4&amp;D111&amp;C5&amp;C6&amp;D112&amp;":"&amp;D113&amp;C6</f>
         <v>php artisan generate:migration add_bottnk_to_measurements_table --fields="bottnk:string"</v>
       </c>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
-      <c r="K112" s="19"/>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B113" s="19" t="s">
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="19"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C113" s="19" t="s">
+      <c r="C115" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B116" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B117" s="10" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>484</v>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B119" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120" s="10" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D90:D99 H90:H99">
-      <formula1>$M$90:$M$99</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D92:D101 H92:H101">
+      <formula1>$M$92:$M$101</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Select from list" sqref="C13">
+      <formula1>$S$92:$S$93</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4907,54 +5006,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.42578125" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>490</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I66"/>
   <sheetViews>
@@ -5301,12 +5352,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5314,137 +5365,140 @@
     <col min="1" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="B5" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B6" s="16" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>236</v>
-      </c>
       <c r="H16" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="K16" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="I16" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>236</v>
-      </c>
       <c r="N16" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="str">
-        <f>IF('AutoLaravel v1'!C90&lt;&gt;"",'AutoLaravel v1'!C90,"")</f>
-        <v>time</v>
+        <f>IF('AutoLaravel v1'!C92&lt;&gt;"",'AutoLaravel v1'!C92,"")</f>
+        <v/>
       </c>
       <c r="C17" s="31" t="str">
-        <f>IF(B17="","",'AutoLaravel v1'!$D$88&amp;"_"&amp;B17)</f>
-        <v>measurements_time</v>
+        <f>IF(B17="","",'AutoLaravel v1'!$D$90&amp;"_"&amp;B17)</f>
+        <v/>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="31" t="str">
         <f>IF(B17="","",C17&amp;$A$1)</f>
-        <v>measurements_time_mssg</v>
+        <v/>
       </c>
       <c r="F17" s="32"/>
       <c r="H17" s="33" t="str">
-        <f>IF('AutoLaravel v1'!G90&lt;&gt;"",'AutoLaravel v1'!G90,"")</f>
+        <f>IF('AutoLaravel v1'!G92&lt;&gt;"",'AutoLaravel v1'!G92,"")</f>
         <v/>
       </c>
       <c r="I17" s="31" t="str">
-        <f>IF(H17&lt;&gt;"",'AutoLaravel v1'!$D$88&amp;"_"&amp;H17,"")</f>
+        <f>IF(H17&lt;&gt;"",'AutoLaravel v1'!$D$90&amp;"_"&amp;H17,"")</f>
         <v/>
       </c>
       <c r="J17" s="31"/>
@@ -5455,7 +5509,7 @@
       <c r="L17" s="32"/>
       <c r="N17" s="38" t="str">
         <f>B17</f>
-        <v>time</v>
+        <v/>
       </c>
       <c r="O17" s="39" t="str">
         <f>IF(H17&lt;&gt;"",",","")&amp;H17</f>
@@ -5464,25 +5518,25 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="str">
-        <f>IF('AutoLaravel v1'!C91&lt;&gt;"",'AutoLaravel v1'!C91,"")</f>
-        <v>farenheit1</v>
+        <f>IF('AutoLaravel v1'!C93&lt;&gt;"",'AutoLaravel v1'!C93,"")</f>
+        <v/>
       </c>
       <c r="C18" s="29" t="str">
-        <f>IF(B18="","",'AutoLaravel v1'!$D$88&amp;"_"&amp;B18)</f>
-        <v>measurements_farenheit1</v>
+        <f>IF(B18="","",'AutoLaravel v1'!$D$90&amp;"_"&amp;B18)</f>
+        <v/>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29" t="str">
         <f t="shared" ref="E18:E26" si="1">IF(B18="","",C18&amp;$A$1)</f>
-        <v>measurements_farenheit1_mssg</v>
+        <v/>
       </c>
       <c r="F18" s="34"/>
       <c r="H18" s="33" t="str">
-        <f>IF('AutoLaravel v1'!G91&lt;&gt;"",'AutoLaravel v1'!G91,"")</f>
+        <f>IF('AutoLaravel v1'!G93&lt;&gt;"",'AutoLaravel v1'!G93,"")</f>
         <v/>
       </c>
       <c r="I18" s="31" t="str">
-        <f>IF(H18&lt;&gt;"",'AutoLaravel v1'!$D$88&amp;"_"&amp;H18,"")</f>
+        <f>IF(H18&lt;&gt;"",'AutoLaravel v1'!$D$90&amp;"_"&amp;H18,"")</f>
         <v/>
       </c>
       <c r="J18" s="29"/>
@@ -5493,7 +5547,7 @@
       <c r="L18" s="34"/>
       <c r="N18" s="40" t="str">
         <f>IF(B18&lt;&gt;"",",","")&amp;B18</f>
-        <v>,farenheit1</v>
+        <v/>
       </c>
       <c r="O18" s="41" t="str">
         <f t="shared" ref="O18:O26" si="2">IF(H18&lt;&gt;"",",","")&amp;H18</f>
@@ -5502,25 +5556,25 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="str">
-        <f>IF('AutoLaravel v1'!C92&lt;&gt;"",'AutoLaravel v1'!C92,"")</f>
-        <v>farenheit2</v>
+        <f>IF('AutoLaravel v1'!C94&lt;&gt;"",'AutoLaravel v1'!C94,"")</f>
+        <v/>
       </c>
       <c r="C19" s="29" t="str">
-        <f>IF(B19="","",'AutoLaravel v1'!$D$88&amp;"_"&amp;B19)</f>
-        <v>measurements_farenheit2</v>
+        <f>IF(B19="","",'AutoLaravel v1'!$D$90&amp;"_"&amp;B19)</f>
+        <v/>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>measurements_farenheit2_mssg</v>
+        <v/>
       </c>
       <c r="F19" s="34"/>
       <c r="H19" s="33" t="str">
-        <f>IF('AutoLaravel v1'!G92&lt;&gt;"",'AutoLaravel v1'!G92,"")</f>
+        <f>IF('AutoLaravel v1'!G94&lt;&gt;"",'AutoLaravel v1'!G94,"")</f>
         <v/>
       </c>
       <c r="I19" s="31" t="str">
-        <f>IF(H19&lt;&gt;"",'AutoLaravel v1'!$D$88&amp;"_"&amp;H19,"")</f>
+        <f>IF(H19&lt;&gt;"",'AutoLaravel v1'!$D$90&amp;"_"&amp;H19,"")</f>
         <v/>
       </c>
       <c r="J19" s="29"/>
@@ -5531,7 +5585,7 @@
       <c r="L19" s="34"/>
       <c r="N19" s="40" t="str">
         <f t="shared" ref="N19:N26" si="3">IF(B19&lt;&gt;"",",","")&amp;B19</f>
-        <v>,farenheit2</v>
+        <v/>
       </c>
       <c r="O19" s="41" t="str">
         <f t="shared" si="2"/>
@@ -5540,25 +5594,25 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="str">
-        <f>IF('AutoLaravel v1'!C93&lt;&gt;"",'AutoLaravel v1'!C93,"")</f>
-        <v>farenheit3</v>
+        <f>IF('AutoLaravel v1'!C95&lt;&gt;"",'AutoLaravel v1'!C95,"")</f>
+        <v/>
       </c>
       <c r="C20" s="29" t="str">
-        <f>IF(B20="","",'AutoLaravel v1'!$D$88&amp;"_"&amp;B20)</f>
-        <v>measurements_farenheit3</v>
+        <f>IF(B20="","",'AutoLaravel v1'!$D$90&amp;"_"&amp;B20)</f>
+        <v/>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>measurements_farenheit3_mssg</v>
+        <v/>
       </c>
       <c r="F20" s="34"/>
       <c r="H20" s="33" t="str">
-        <f>IF('AutoLaravel v1'!G93&lt;&gt;"",'AutoLaravel v1'!G93,"")</f>
+        <f>IF('AutoLaravel v1'!G95&lt;&gt;"",'AutoLaravel v1'!G95,"")</f>
         <v/>
       </c>
       <c r="I20" s="31" t="str">
-        <f>IF(H20&lt;&gt;"",'AutoLaravel v1'!$D$88&amp;"_"&amp;H20,"")</f>
+        <f>IF(H20&lt;&gt;"",'AutoLaravel v1'!$D$90&amp;"_"&amp;H20,"")</f>
         <v/>
       </c>
       <c r="J20" s="29"/>
@@ -5569,7 +5623,7 @@
       <c r="L20" s="34"/>
       <c r="N20" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>,farenheit3</v>
+        <v/>
       </c>
       <c r="O20" s="41" t="str">
         <f t="shared" si="2"/>
@@ -5578,11 +5632,11 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="str">
-        <f>IF('AutoLaravel v1'!C94&lt;&gt;"",'AutoLaravel v1'!C94,"")</f>
+        <f>IF('AutoLaravel v1'!C96&lt;&gt;"",'AutoLaravel v1'!C96,"")</f>
         <v/>
       </c>
       <c r="C21" s="29" t="str">
-        <f>IF(B21="","",'AutoLaravel v1'!$D$88&amp;"_"&amp;B21)</f>
+        <f>IF(B21="","",'AutoLaravel v1'!$D$90&amp;"_"&amp;B21)</f>
         <v/>
       </c>
       <c r="D21" s="29"/>
@@ -5592,11 +5646,11 @@
       </c>
       <c r="F21" s="34"/>
       <c r="H21" s="33" t="str">
-        <f>IF('AutoLaravel v1'!G94&lt;&gt;"",'AutoLaravel v1'!G94,"")</f>
+        <f>IF('AutoLaravel v1'!G96&lt;&gt;"",'AutoLaravel v1'!G96,"")</f>
         <v/>
       </c>
       <c r="I21" s="31" t="str">
-        <f>IF(H21&lt;&gt;"",'AutoLaravel v1'!$D$88&amp;"_"&amp;H21,"")</f>
+        <f>IF(H21&lt;&gt;"",'AutoLaravel v1'!$D$90&amp;"_"&amp;H21,"")</f>
         <v/>
       </c>
       <c r="J21" s="29"/>
@@ -5616,11 +5670,11 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="str">
-        <f>IF('AutoLaravel v1'!C95&lt;&gt;"",'AutoLaravel v1'!C95,"")</f>
+        <f>IF('AutoLaravel v1'!C97&lt;&gt;"",'AutoLaravel v1'!C97,"")</f>
         <v/>
       </c>
       <c r="C22" s="29" t="str">
-        <f>IF(B22="","",'AutoLaravel v1'!$D$88&amp;"_"&amp;B22)</f>
+        <f>IF(B22="","",'AutoLaravel v1'!$D$90&amp;"_"&amp;B22)</f>
         <v/>
       </c>
       <c r="D22" s="29"/>
@@ -5630,11 +5684,11 @@
       </c>
       <c r="F22" s="34"/>
       <c r="H22" s="33" t="str">
-        <f>IF('AutoLaravel v1'!G95&lt;&gt;"",'AutoLaravel v1'!G95,"")</f>
+        <f>IF('AutoLaravel v1'!G97&lt;&gt;"",'AutoLaravel v1'!G97,"")</f>
         <v/>
       </c>
       <c r="I22" s="31" t="str">
-        <f>IF(H22&lt;&gt;"",'AutoLaravel v1'!$D$88&amp;"_"&amp;H22,"")</f>
+        <f>IF(H22&lt;&gt;"",'AutoLaravel v1'!$D$90&amp;"_"&amp;H22,"")</f>
         <v/>
       </c>
       <c r="J22" s="29"/>
@@ -5654,11 +5708,11 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="str">
-        <f>IF('AutoLaravel v1'!C96&lt;&gt;"",'AutoLaravel v1'!C96,"")</f>
+        <f>IF('AutoLaravel v1'!C98&lt;&gt;"",'AutoLaravel v1'!C98,"")</f>
         <v/>
       </c>
       <c r="C23" s="29" t="str">
-        <f>IF(B23="","",'AutoLaravel v1'!$D$88&amp;"_"&amp;B23)</f>
+        <f>IF(B23="","",'AutoLaravel v1'!$D$90&amp;"_"&amp;B23)</f>
         <v/>
       </c>
       <c r="D23" s="29"/>
@@ -5668,11 +5722,11 @@
       </c>
       <c r="F23" s="34"/>
       <c r="H23" s="33" t="str">
-        <f>IF('AutoLaravel v1'!G96&lt;&gt;"",'AutoLaravel v1'!G96,"")</f>
+        <f>IF('AutoLaravel v1'!G98&lt;&gt;"",'AutoLaravel v1'!G98,"")</f>
         <v/>
       </c>
       <c r="I23" s="31" t="str">
-        <f>IF(H23&lt;&gt;"",'AutoLaravel v1'!$D$88&amp;"_"&amp;H23,"")</f>
+        <f>IF(H23&lt;&gt;"",'AutoLaravel v1'!$D$90&amp;"_"&amp;H23,"")</f>
         <v/>
       </c>
       <c r="J23" s="29"/>
@@ -5692,11 +5746,11 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="str">
-        <f>IF('AutoLaravel v1'!C97&lt;&gt;"",'AutoLaravel v1'!C97,"")</f>
+        <f>IF('AutoLaravel v1'!C99&lt;&gt;"",'AutoLaravel v1'!C99,"")</f>
         <v/>
       </c>
       <c r="C24" s="29" t="str">
-        <f>IF(B24="","",'AutoLaravel v1'!$D$88&amp;"_"&amp;B24)</f>
+        <f>IF(B24="","",'AutoLaravel v1'!$D$90&amp;"_"&amp;B24)</f>
         <v/>
       </c>
       <c r="D24" s="29"/>
@@ -5706,11 +5760,11 @@
       </c>
       <c r="F24" s="34"/>
       <c r="H24" s="33" t="str">
-        <f>IF('AutoLaravel v1'!G97&lt;&gt;"",'AutoLaravel v1'!G97,"")</f>
+        <f>IF('AutoLaravel v1'!G99&lt;&gt;"",'AutoLaravel v1'!G99,"")</f>
         <v/>
       </c>
       <c r="I24" s="31" t="str">
-        <f>IF(H24&lt;&gt;"",'AutoLaravel v1'!$D$88&amp;"_"&amp;H24,"")</f>
+        <f>IF(H24&lt;&gt;"",'AutoLaravel v1'!$D$90&amp;"_"&amp;H24,"")</f>
         <v/>
       </c>
       <c r="J24" s="29"/>
@@ -5730,11 +5784,11 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="str">
-        <f>IF('AutoLaravel v1'!C98&lt;&gt;"",'AutoLaravel v1'!C98,"")</f>
+        <f>IF('AutoLaravel v1'!C100&lt;&gt;"",'AutoLaravel v1'!C100,"")</f>
         <v/>
       </c>
       <c r="C25" s="29" t="str">
-        <f>IF(B25="","",'AutoLaravel v1'!$D$88&amp;"_"&amp;B25)</f>
+        <f>IF(B25="","",'AutoLaravel v1'!$D$90&amp;"_"&amp;B25)</f>
         <v/>
       </c>
       <c r="D25" s="29"/>
@@ -5744,11 +5798,11 @@
       </c>
       <c r="F25" s="34"/>
       <c r="H25" s="33" t="str">
-        <f>IF('AutoLaravel v1'!G98&lt;&gt;"",'AutoLaravel v1'!G98,"")</f>
+        <f>IF('AutoLaravel v1'!G100&lt;&gt;"",'AutoLaravel v1'!G100,"")</f>
         <v/>
       </c>
       <c r="I25" s="31" t="str">
-        <f>IF(H25&lt;&gt;"",'AutoLaravel v1'!$D$88&amp;"_"&amp;H25,"")</f>
+        <f>IF(H25&lt;&gt;"",'AutoLaravel v1'!$D$90&amp;"_"&amp;H25,"")</f>
         <v/>
       </c>
       <c r="J25" s="29"/>
@@ -5768,11 +5822,11 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="35" t="str">
-        <f>IF('AutoLaravel v1'!C99&lt;&gt;"",'AutoLaravel v1'!C99,"")</f>
+        <f>IF('AutoLaravel v1'!C101&lt;&gt;"",'AutoLaravel v1'!C101,"")</f>
         <v/>
       </c>
       <c r="C26" s="36" t="str">
-        <f>IF(B26="","",'AutoLaravel v1'!$D$88&amp;"_"&amp;B26)</f>
+        <f>IF(B26="","",'AutoLaravel v1'!$D$90&amp;"_"&amp;B26)</f>
         <v/>
       </c>
       <c r="D26" s="36"/>
@@ -5782,11 +5836,11 @@
       </c>
       <c r="F26" s="37"/>
       <c r="H26" s="35" t="str">
-        <f>IF('AutoLaravel v1'!G99&lt;&gt;"",'AutoLaravel v1'!G99,"")</f>
+        <f>IF('AutoLaravel v1'!G101&lt;&gt;"",'AutoLaravel v1'!G101,"")</f>
         <v/>
       </c>
       <c r="I26" s="31" t="str">
-        <f>IF(H26&lt;&gt;"",'AutoLaravel v1'!$D$88&amp;"_"&amp;H26,"")</f>
+        <f>IF(H26&lt;&gt;"",'AutoLaravel v1'!$D$90&amp;"_"&amp;H26,"")</f>
         <v/>
       </c>
       <c r="J26" s="36"/>
@@ -5806,13 +5860,13 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="51" t="str">
         <f>IF(C17&lt;&gt;"",$B$3&amp;C17&amp;$B$4&amp;E17&amp;$B$5,"")</f>
-        <v>&lt;input type='text' id='measurements_time'&gt;&lt;spam id='measurements_time_mssg'&gt;&lt;/spam&gt;</v>
+        <v/>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
@@ -5832,7 +5886,7 @@
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="51" t="str">
         <f t="shared" ref="B31:B39" si="4">IF(C18&lt;&gt;"",$B$3&amp;C18&amp;$B$4&amp;E18&amp;$B$5,"")</f>
-        <v>&lt;input type='text' id='measurements_farenheit1'&gt;&lt;spam id='measurements_farenheit1_mssg'&gt;&lt;/spam&gt;</v>
+        <v/>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
@@ -5852,7 +5906,7 @@
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="51" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;input type='text' id='measurements_farenheit2'&gt;&lt;spam id='measurements_farenheit2_mssg'&gt;&lt;/spam&gt;</v>
+        <v/>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
@@ -5872,7 +5926,7 @@
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="51" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;input type='text' id='measurements_farenheit3'&gt;&lt;spam id='measurements_farenheit3_mssg'&gt;&lt;/spam&gt;</v>
+        <v/>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
@@ -6011,7 +6065,7 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="53" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C41" s="53"/>
       <c r="D41" s="53"/>
@@ -6019,12 +6073,12 @@
       <c r="F41" s="53"/>
       <c r="G41" s="53"/>
       <c r="H41" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="53" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C42" s="53"/>
       <c r="D42" s="53"/>
@@ -6034,7 +6088,7 @@
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="53" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
@@ -6044,56 +6098,56 @@
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D46" s="10" t="str">
         <f>'AutoLaravel v1'!D55&amp;'AutoLaravel v1'!D56</f>
-        <v>chartsbase</v>
+        <v>prayrosary</v>
       </c>
       <c r="E46" s="13" t="str">
         <f>UPPER(LEFT(D46,1))&amp;RIGHT(D46,LEN(D46)-1)</f>
-        <v>Chartsbase</v>
+        <v>Prayrosary</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D47" s="10" t="str">
         <f>'AutoLaravel v1'!D55</f>
-        <v>charts</v>
+        <v>pray</v>
       </c>
       <c r="E47" s="13"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D48" s="10" t="str">
-        <f>'AutoLaravel v1'!D68</f>
-        <v>charts</v>
+        <f>'AutoLaravel v1'!D70</f>
+        <v>pray</v>
       </c>
       <c r="E48" s="13" t="str">
         <f>UPPER(LEFT(D48,1))&amp;RIGHT(D48,LEN(D48)-1)</f>
-        <v>Charts</v>
+        <v>Pray</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D49" s="10" t="str">
         <f>D46&amp;"_submit"</f>
-        <v>chartsbase_submit</v>
+        <v>prayrosary_submit</v>
       </c>
       <c r="F49" s="51" t="str">
         <f>B6&amp;D46&amp;C1</f>
-        <v>&lt;button class='btn' id='chartsbase_submit' &gt;submit&lt;/button&gt;</v>
+        <v>&lt;button class='btn' id='prayrosary_submit' &gt;submit&lt;/button&gt;</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
@@ -6102,27 +6156,27 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D50" s="28" t="str">
         <f>D47&amp;"/"&amp;D46</f>
-        <v>charts/chartsbase</v>
+        <v>pray/prayrosary</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="str">
         <f>$A$5&amp;D49&amp;A6</f>
-        <v>$('#chartsbase_submit').click(function() {</v>
+        <v>$('#prayrosary_submit').click(function() {</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="51" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
@@ -6132,7 +6186,7 @@
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="51" t="str">
         <f>IF(B17="","",$A$2&amp;B17&amp;$A$3&amp;C17&amp;$A$4)&amp;IF(B18="","",$A$2&amp;B18&amp;$A$3&amp;C18&amp;$A$4)</f>
-        <v>var time=$('#measurements_time').val();var farenheit1=$('#measurements_farenheit1').val();</v>
+        <v/>
       </c>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
@@ -6142,7 +6196,7 @@
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="51" t="str">
         <f>IF(B19="","",$A$2&amp;B19&amp;$A$3&amp;C19&amp;$A$4)&amp;IF(B20="","",$A$2&amp;B20&amp;$A$3&amp;C20&amp;$A$4)</f>
-        <v>var farenheit2=$('#measurements_farenheit2').val();var farenheit3=$('#measurements_farenheit3').val();</v>
+        <v/>
       </c>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
@@ -6231,224 +6285,213 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="18" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="52" t="str">
         <f>"    "&amp;N17&amp;IF(B17&lt;&gt;"",":","")&amp;B17&amp;N18&amp;IF(B18&lt;&gt;"",":","")&amp;B18&amp;N19&amp;IF(B19&lt;&gt;"",":","")&amp;B19&amp;N20&amp;IF(B20&lt;&gt;"",":","")&amp;B20</f>
-        <v xml:space="preserve">    time:time,farenheit1:farenheit1,farenheit2:farenheit2,farenheit3:farenheit3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    </v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="52" t="str">
         <f>N21&amp;IF(B21&lt;&gt;"",":","")&amp;B21&amp;N22&amp;IF(B22&lt;&gt;"",":","")&amp;B22&amp;N23&amp;IF(B23&lt;&gt;"",":","")&amp;B23&amp;N24&amp;IF(B24&lt;&gt;"",":","")&amp;B24</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="52" t="str">
         <f t="shared" ref="B67" si="6">N25&amp;IF(B25&lt;&gt;"",":","")&amp;B25&amp;N26&amp;IF(B26&lt;&gt;"",":","")&amp;B26</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="51" t="str">
         <f>O17&amp;IF(H17&lt;&gt;"",":","")&amp;H17&amp;O18&amp;IF(H18&lt;&gt;"",":","")&amp;H18&amp;O19&amp;IF(H19&lt;&gt;"",":","")&amp;H19&amp;O20&amp;IF(H20&lt;&gt;"",":","")&amp;H20</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="51" t="str">
         <f>O21&amp;IF(H21&lt;&gt;"",":","")&amp;H21&amp;O22&amp;IF(H22&lt;&gt;"",":","")&amp;H22&amp;O23&amp;IF(H23&lt;&gt;"",":","")&amp;H23&amp;O24&amp;IF(H24&lt;&gt;"",":","")&amp;H24</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="51" t="str">
         <f t="shared" ref="B70" si="7">O25&amp;IF(H25&lt;&gt;"",":","")&amp;H25&amp;O26&amp;IF(H26&lt;&gt;"",":","")&amp;H26</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="18" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="18"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="18" t="str">
-        <f>B1&amp;D50&amp;B2</f>
-        <v>var route=base+'/charts/chartsbase';</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+        <f>"    "&amp;B1&amp;D50&amp;B2</f>
+        <v xml:space="preserve">    var route=base+'/pray/prayrosary';</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D78" s="28" t="str">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="51" t="str">
+        <f>"         "&amp;IF('AutoLaravel v1'!C92&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!C92&amp;$C$3,"")&amp;IF('AutoLaravel v1'!C93&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!C93&amp;$C$3,"")&amp;IF('AutoLaravel v1'!C94&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!C94&amp;$C$3,"")&amp;IF('AutoLaravel v1'!C95&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!C95&amp;$C$3,"")</f>
+        <v xml:space="preserve">         </v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="51" t="str">
+        <f>"         "&amp;IF('AutoLaravel v1'!C96&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!C96&amp;$C$3,"")&amp;IF('AutoLaravel v1'!C97&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!C97&amp;$C$3,"")&amp;IF('AutoLaravel v1'!C98&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!C98&amp;$C$3,"")&amp;IF('AutoLaravel v1'!C99&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!C99&amp;$C$3,"")</f>
+        <v xml:space="preserve">         </v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="51" t="str">
+        <f>"         "&amp;IF('AutoLaravel v1'!C100&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!C100&amp;$C$3,"")&amp;IF('AutoLaravel v1'!C101&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!C101&amp;$C$3,"")</f>
+        <v xml:space="preserve">         </v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="65" t="str">
+        <f>"         "&amp;IF('AutoLaravel v1'!G92&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!G92&amp;$C$3,"")&amp;IF('AutoLaravel v1'!G93&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!G93&amp;$C$3,"")&amp;IF('AutoLaravel v1'!G94&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!G94&amp;$C$3,"")&amp;IF('AutoLaravel v1'!G95&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!G95&amp;$C$3,"")</f>
+        <v xml:space="preserve">         </v>
+      </c>
+      <c r="C78" s="62" t="s">
+        <v>497</v>
+      </c>
+      <c r="D78" s="63"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="64" t="str">
+        <f>"         "&amp;IF('AutoLaravel v1'!G96&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!G96&amp;$C$3,"")&amp;IF('AutoLaravel v1'!G97&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!G97&amp;$C$3,"")&amp;IF('AutoLaravel v1'!G98&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!G98&amp;$C$3,"")&amp;IF('AutoLaravel v1'!G99&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!G99&amp;$C$3,"")</f>
+        <v xml:space="preserve">         </v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="64" t="str">
+        <f>"         "&amp;IF('AutoLaravel v1'!G100&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!G100&amp;$C$3,"")&amp;IF('AutoLaravel v1'!G101&lt;&gt;"",$A$5&amp;'AutoLaravel v1'!G101&amp;$C$3,"")</f>
+        <v xml:space="preserve">         </v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="18" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" s="28" t="str">
         <f>E48&amp;"Controller"</f>
-        <v>ChartsController</v>
-      </c>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H78" s="13" t="str">
-        <f>'AutoLaravel v1'!D88</f>
-        <v>measurements</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="D79" s="54" t="str">
-        <f>"public function post"&amp;E46&amp;"() {"</f>
-        <v>public function postChartsbase() {</v>
-      </c>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="H79" s="13" t="str">
-        <f>'AutoLaravel v1'!G88</f>
-        <v>Measurement</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D80" s="54" t="str">
-        <f>"$"&amp;B17&amp;"=$_POST['"&amp;B17&amp;"'];"</f>
-        <v>$time=$_POST['time'];</v>
-      </c>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="H80" s="13" t="str">
-        <f>"$"&amp;'AutoLaravel v1'!F88</f>
-        <v>$measurement</v>
-      </c>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="54" t="str">
-        <f>"$"&amp;B18&amp;"=$_POST['"&amp;B18&amp;"'];"</f>
-        <v>$farenheit1=$_POST['farenheit1'];</v>
-      </c>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D82" s="54" t="str">
-        <f>"$"&amp;B19&amp;"=$_POST['"&amp;B19&amp;"'];"</f>
-        <v>$farenheit2=$_POST['farenheit2'];</v>
-      </c>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-    </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D83" s="54" t="str">
-        <f>"$"&amp;B20&amp;"=$_POST['"&amp;B20&amp;"'];"</f>
-        <v>$farenheit3=$_POST['farenheit3'];</v>
-      </c>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-    </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D84" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-    </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D85" s="54" t="str">
-        <f>H80&amp;"=New "&amp;H79&amp;";"</f>
-        <v>$measurement=New Measurement;</v>
+        <v>PrayController</v>
       </c>
       <c r="E85" s="28"/>
       <c r="F85" s="28"/>
-    </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D86" s="51" t="str">
-        <f t="shared" ref="D86:D95" si="8">IF(B17&lt;&gt;"",$H$80&amp;$C$2&amp;B17&amp;"=$"&amp;B17&amp;";","")</f>
-        <v>$measurement-&gt;time=$time;</v>
+      <c r="G85" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="H85" s="13" t="str">
+        <f>'AutoLaravel v1'!D90</f>
+        <v>measurements</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D86" s="54" t="str">
+        <f>"public function post"&amp;E46&amp;"() {"</f>
+        <v>public function postPrayrosary() {</v>
       </c>
       <c r="E86" s="28"/>
       <c r="F86" s="28"/>
-    </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D87" s="51" t="str">
-        <f t="shared" si="8"/>
-        <v>$measurement-&gt;farenheit1=$farenheit1;</v>
+      <c r="G86" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="H86" s="13" t="str">
+        <f>'AutoLaravel v1'!G90</f>
+        <v>Measurement</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D87" s="54" t="str">
+        <f>"$"&amp;B17&amp;"=$_POST['"&amp;B17&amp;"'];"</f>
+        <v>$=$_POST[''];</v>
       </c>
       <c r="E87" s="28"/>
       <c r="F87" s="28"/>
-    </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D88" s="51" t="str">
-        <f t="shared" si="8"/>
-        <v>$measurement-&gt;farenheit2=$farenheit2;</v>
+      <c r="G87" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="H87" s="13" t="str">
+        <f>"$"&amp;'AutoLaravel v1'!F90</f>
+        <v>$measurement</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D88" s="54" t="str">
+        <f>"$"&amp;B18&amp;"=$_POST['"&amp;B18&amp;"'];"</f>
+        <v>$=$_POST[''];</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D89" s="51" t="str">
-        <f t="shared" si="8"/>
-        <v>$measurement-&gt;farenheit3=$farenheit3;</v>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D89" s="54" t="str">
+        <f>"$"&amp;B19&amp;"=$_POST['"&amp;B19&amp;"'];"</f>
+        <v>$=$_POST[''];</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D90" s="51" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D90" s="54" t="str">
+        <f>"$"&amp;B20&amp;"=$_POST['"&amp;B20&amp;"'];"</f>
+        <v>$=$_POST[''];</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D91" s="51" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D91" s="54" t="s">
+        <v>333</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D92" s="51" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D92" s="54" t="str">
+        <f>H87&amp;"=New "&amp;H86&amp;";"</f>
+        <v>$measurement=New Measurement;</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
     </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D93" s="51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D93:D102" si="8">IF(B17&lt;&gt;"",$H$87&amp;$C$2&amp;B17&amp;"=$"&amp;B17&amp;";","")</f>
         <v/>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
     </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D94" s="51" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6456,7 +6499,7 @@
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
     </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D95" s="51" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -6464,36 +6507,916 @@
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
     </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D96" s="54" t="s">
-        <v>343</v>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D96" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D97" s="54" t="str">
-        <f>H80&amp;C2&amp;"save();"</f>
-        <v>$measurement-&gt;save();</v>
+      <c r="D97" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D98" s="54" t="s">
-        <v>344</v>
+      <c r="D98" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D99" s="54" t="s">
-        <v>39</v>
+      <c r="D99" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v/>
       </c>
       <c r="E99" s="28"/>
       <c r="F99" s="28"/>
     </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D100" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E100" s="28"/>
+      <c r="F100" s="28"/>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D101" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E101" s="28"/>
+      <c r="F101" s="28"/>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D102" s="51" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D103" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D104" s="54" t="str">
+        <f>H87&amp;C2&amp;"save();"</f>
+        <v>$measurement-&gt;save();</v>
+      </c>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D105" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D106" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N120"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="14" width="11.42578125" style="10"/>
+    <col min="15" max="15" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="44" t="str">
+        <f>"').click(function() {"</f>
+        <v>').click(function() {</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" s="44" t="str">
+        <f>"=$_POST['"</f>
+        <v>=$_POST['</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="str">
+        <f>"' &gt;"</f>
+        <v>' &gt;</v>
+      </c>
+      <c r="B3" s="44" t="str">
+        <f>"!='') {"</f>
+        <v>!='') {</v>
+      </c>
+      <c r="C3" s="44" t="str">
+        <f>"'];"</f>
+        <v>'];</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C4" s="44" t="str">
+        <f>"=new "</f>
+        <v xml:space="preserve">=new </v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" s="44" t="str">
+        <f>"' , {"</f>
+        <v>' , {</v>
+      </c>
+      <c r="C5" s="44" t="str">
+        <f>"-&gt;"</f>
+        <v>-&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="str">
+        <f>"' &gt;Add + &lt;/button&gt;"</f>
+        <v>' &gt;Add + &lt;/button&gt;</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C11" s="48" t="str">
+        <f>'AutoLaravel v1'!D90</f>
+        <v>measurements</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="13" t="str">
+        <f>LEFT(C11,LEN(C11)-1)</f>
+        <v>measurement</v>
+      </c>
+      <c r="F11" s="13" t="str">
+        <f>UPPER(LEFT(E11,1))&amp;RIGHT(E11,LEN(E11)-1)</f>
+        <v>Measurement</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>489</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" s="10" t="str">
+        <f>A1&amp;E11</f>
+        <v>addmeasurement</v>
+      </c>
+      <c r="E15" s="13" t="str">
+        <f>C15&amp;"s"</f>
+        <v>addmeasurements</v>
+      </c>
+      <c r="G15" s="13" t="str">
+        <f>LEFT(E15,LEN(E15)-1)</f>
+        <v>addmeasurement</v>
+      </c>
+      <c r="H15" s="13" t="str">
+        <f>UPPER(LEFT(G15,1))&amp;RIGHT(G15,LEN(G15)-1)</f>
+        <v>Addmeasurement</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="51" t="str">
+        <f>"$"&amp;E11&amp;"="&amp;F11&amp;"::orderBy('"&amp;C12&amp;"');"</f>
+        <v>$measurement=Measurement::orderBy('id');</v>
+      </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="51" t="str">
+        <f>A2&amp;C15&amp;A3</f>
+        <v>&lt;input type='text' id='addmeasurement' &gt;</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="51" t="str">
+        <f>A5&amp;A4&amp;E11&amp;A6</f>
+        <v>&lt;button class='btn' id='confirm_addmeasurement' &gt;Add + &lt;/button&gt;</v>
+      </c>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="51" t="str">
+        <f>A7&amp;A4&amp;E11&amp;B1</f>
+        <v>$(#'confirm_addmeasurement').click(function() {</v>
+      </c>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="51" t="str">
+        <f>"     var "&amp;C15&amp;"=$('#"&amp;C15&amp;"').val();"</f>
+        <v xml:space="preserve">     var addmeasurement=$('#addmeasurement').val();</v>
+      </c>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="51" t="s">
+        <v>410</v>
+      </c>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="51" t="str">
+        <f>"    "&amp;B2&amp;C15&amp;B3</f>
+        <v xml:space="preserve">    if(addmeasurement!='') {</v>
+      </c>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="51" t="str">
+        <f>"        "&amp;B4&amp;C14&amp;"/"&amp;C15&amp;B5&amp;C15&amp;";"&amp;C15&amp;B6</f>
+        <v xml:space="preserve">        $.post(base+'/logged/addmeasurement' , {addmeasurement;addmeasurement},function(d) {</v>
+      </c>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="51" t="str">
+        <f>"          "&amp;B2&amp;C7</f>
+        <v xml:space="preserve">          if(d==1) {</v>
+      </c>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="51" t="s">
+        <v>427</v>
+      </c>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="51" t="str">
+        <f>"        }"</f>
+        <v xml:space="preserve">        }</v>
+      </c>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="51" t="str">
+        <f>"        );"</f>
+        <v xml:space="preserve">        );</v>
+      </c>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="51" t="str">
+        <f>"    }"</f>
+        <v xml:space="preserve">    }</v>
+      </c>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="51"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="51" t="str">
+        <f>B7&amp;H15&amp;C1</f>
+        <v>public function postAddmeasurement() {</v>
+      </c>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="51" t="str">
+        <f>"    $"&amp;C15&amp;C2&amp;C15&amp;C3</f>
+        <v xml:space="preserve">    $addmeasurement=$_POST['addmeasurement'];</v>
+      </c>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="51" t="str">
+        <f>"    $"&amp;$E$11&amp;C4&amp;F11&amp;";"</f>
+        <v xml:space="preserve">    $measurement=new Measurement;</v>
+      </c>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="51" t="str">
+        <f>"    $"&amp;$E$11&amp;C5&amp;C13&amp;"=$"&amp;G15&amp;";"</f>
+        <v xml:space="preserve">    $measurement-&gt;idea=$addmeasurement;</v>
+      </c>
+      <c r="C80" s="51"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="51" t="str">
+        <f>"    $"&amp;$E$11&amp;C5&amp;C6</f>
+        <v xml:space="preserve">    $measurement-&gt;save();</v>
+      </c>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N96" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="98" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N98" s="61" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="99" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N99" s="61" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="100" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N100" s="61" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="101" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N101" s="66" t="str">
+        <f>IF('AutoLaravel v1'!C92&lt;&gt;"",'AutoLaravel v1'!C92,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N102" s="66" t="str">
+        <f>IF('AutoLaravel v1'!C93&lt;&gt;"",'AutoLaravel v1'!C93,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N103" s="66" t="str">
+        <f>IF('AutoLaravel v1'!C94&lt;&gt;"",'AutoLaravel v1'!C94,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N104" s="66" t="str">
+        <f>IF('AutoLaravel v1'!C95&lt;&gt;"",'AutoLaravel v1'!C95,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N105" s="66" t="str">
+        <f>IF('AutoLaravel v1'!C96&lt;&gt;"",'AutoLaravel v1'!C96,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N106" s="66" t="str">
+        <f>IF('AutoLaravel v1'!C97&lt;&gt;"",'AutoLaravel v1'!C97,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N107" s="66" t="str">
+        <f>IF('AutoLaravel v1'!C98&lt;&gt;"",'AutoLaravel v1'!C98,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N108" s="66" t="str">
+        <f>IF('AutoLaravel v1'!C99&lt;&gt;"",'AutoLaravel v1'!C99,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N109" s="66" t="str">
+        <f>IF('AutoLaravel v1'!C100&lt;&gt;"",'AutoLaravel v1'!C100,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N110" s="66" t="str">
+        <f>IF('AutoLaravel v1'!C101&lt;&gt;"",'AutoLaravel v1'!C101,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N111" s="61" t="str">
+        <f>IF('AutoLaravel v1'!G92&lt;&gt;"",'AutoLaravel v1'!G92,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N112" s="61" t="str">
+        <f>IF('AutoLaravel v1'!G93&lt;&gt;"",'AutoLaravel v1'!G93,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N113" s="61" t="str">
+        <f>IF('AutoLaravel v1'!G94&lt;&gt;"",'AutoLaravel v1'!G94,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N114" s="61" t="str">
+        <f>IF('AutoLaravel v1'!G95&lt;&gt;"",'AutoLaravel v1'!G95,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N115" s="61" t="str">
+        <f>IF('AutoLaravel v1'!G96&lt;&gt;"",'AutoLaravel v1'!G96,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N116" s="61" t="str">
+        <f>IF('AutoLaravel v1'!G97&lt;&gt;"",'AutoLaravel v1'!G97,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N117" s="61" t="str">
+        <f>IF('AutoLaravel v1'!G98&lt;&gt;"",'AutoLaravel v1'!G98,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N118" s="61" t="str">
+        <f>IF('AutoLaravel v1'!G99&lt;&gt;"",'AutoLaravel v1'!G99,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N119" s="61" t="str">
+        <f>IF('AutoLaravel v1'!G100&lt;&gt;"",'AutoLaravel v1'!G100,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N120" s="61" t="str">
+        <f>IF('AutoLaravel v1'!G101&lt;&gt;"",'AutoLaravel v1'!G101,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="List" sqref="C12:D12">
+      <formula1>$N$98:$N$120</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6501,10 +7424,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H73"/>
+  <dimension ref="B3:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6512,603 +7435,38 @@
     <col min="1" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1" s="44" t="str">
-        <f>"').click(function() {"</f>
-        <v>').click(function() {</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>333</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>414</v>
-      </c>
-      <c r="C2" s="44" t="str">
-        <f>"=$_POST['"</f>
-        <v>=$_POST['</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="str">
-        <f>"' &gt;"</f>
-        <v>' &gt;</v>
-      </c>
-      <c r="B3" s="44" t="str">
-        <f>"!='') {"</f>
-        <v>!='') {</v>
-      </c>
-      <c r="C3" s="44" t="str">
-        <f>"'];"</f>
-        <v>'];</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>424</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="C4" s="44" t="str">
-        <f>"=new "</f>
-        <v xml:space="preserve">=new </v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>337</v>
-      </c>
-      <c r="B5" s="44" t="str">
-        <f>"' , {"</f>
-        <v>' , {</v>
-      </c>
-      <c r="C5" s="44" t="str">
-        <f>"-&gt;"</f>
-        <v>-&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="str">
-        <f>"' &gt;Add + &lt;/button&gt;"</f>
-        <v>' &gt;Add + &lt;/button&gt;</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>419</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="44" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>425</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>411</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="13" t="str">
-        <f>LEFT(C11,LEN(C11)-1)</f>
-        <v>idea</v>
-      </c>
-      <c r="F11" s="13" t="str">
-        <f>UPPER(LEFT(E11,1))&amp;RIGHT(E11,LEN(E11)-1)</f>
-        <v>Idea</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>428</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>418</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C14" s="10" t="str">
-        <f>A1&amp;E11</f>
-        <v>addidea</v>
-      </c>
-      <c r="E14" s="13" t="str">
-        <f>C14&amp;"s"</f>
-        <v>addideas</v>
-      </c>
-      <c r="G14" s="13" t="str">
-        <f>LEFT(E14,LEN(E14)-1)</f>
-        <v>addidea</v>
-      </c>
-      <c r="H14" s="13" t="str">
-        <f>UPPER(LEFT(G14,1))&amp;RIGHT(G14,LEN(G14)-1)</f>
-        <v>Addidea</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="51" t="str">
-        <f>A2&amp;C14&amp;A3</f>
-        <v>&lt;input type='text' id='addidea' &gt;</v>
-      </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="51" t="str">
-        <f>A5&amp;A4&amp;E11&amp;A6</f>
-        <v>&lt;button class='btn' id='confirm_addidea' &gt;Add + &lt;/button&gt;</v>
-      </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="51" t="str">
-        <f>A7&amp;A4&amp;E11&amp;B1</f>
-        <v>$(#'confirm_addidea').click(function() {</v>
-      </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="51" t="str">
-        <f>"     var "&amp;C14&amp;"=$('#"&amp;C14&amp;"').val();"</f>
-        <v xml:space="preserve">     var addidea=$('#addidea').val();</v>
-      </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="51" t="str">
-        <f>"    "&amp;B2&amp;C14&amp;B3</f>
-        <v xml:space="preserve">    if(addidea!='') {</v>
-      </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="51" t="str">
-        <f>"        "&amp;B4&amp;C13&amp;"/"&amp;C14&amp;B5&amp;C14&amp;";"&amp;C14&amp;B6</f>
-        <v xml:space="preserve">        $.post(base+'/logged/addidea' , {addidea;addidea},function(d) {</v>
-      </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="51" t="str">
-        <f>"          "&amp;B2&amp;C7</f>
-        <v xml:space="preserve">          if(d==1) {</v>
-      </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="51" t="s">
-        <v>420</v>
-      </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="51" t="s">
-        <v>432</v>
-      </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="51" t="str">
-        <f>"        }"</f>
-        <v xml:space="preserve">        }</v>
-      </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="51" t="str">
-        <f>"        );"</f>
-        <v xml:space="preserve">        );</v>
-      </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="51" t="str">
-        <f>"    }"</f>
-        <v xml:space="preserve">    }</v>
-      </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="51"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="51"/>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="51"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="51"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="51" t="str">
-        <f>B7&amp;H14&amp;C1</f>
-        <v>public function postAddidea() {</v>
-      </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="51" t="str">
-        <f>"    $"&amp;C14&amp;C2&amp;C14&amp;C3</f>
-        <v xml:space="preserve">    $addidea=$_POST['addidea'];</v>
-      </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="51" t="str">
-        <f>"    $"&amp;$E$11&amp;C4&amp;F11&amp;";"</f>
-        <v xml:space="preserve">    $idea=new Idea;</v>
-      </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="51" t="str">
-        <f>"    $"&amp;$E$11&amp;C5&amp;C12&amp;"=$"&amp;G14&amp;";"</f>
-        <v xml:space="preserve">    $idea-&gt;idea=$addidea;</v>
-      </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="51" t="str">
-        <f>"    $"&amp;$E$11&amp;C5&amp;C6</f>
-        <v xml:space="preserve">    $idea-&gt;save();</v>
-      </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="51" t="s">
-        <v>430</v>
-      </c>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="51"/>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>482</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7129,61 +7487,61 @@
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D9" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D11" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
@@ -7211,7 +7569,7 @@
         <v>99</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -7220,83 +7578,83 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" s="26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D23" s="18"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C26" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C28" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C32" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C33" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C34" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F36" s="25"/>
     </row>
@@ -7326,132 +7684,132 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" s="18" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C30" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C32" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -7462,105 +7820,105 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C35" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C36" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C37" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C38" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C39" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C40" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C41" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C42" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C45" s="18" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -7586,58 +7944,58 @@
   <sheetData>
     <row r="1" spans="1:10" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D11" s="18" t="str">
         <f>A1&amp;D7&amp;A2&amp;D9&amp;A3</f>
@@ -7647,31 +8005,31 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D15" s="18" t="str">
         <f>$B$1&amp;B15&amp;UPPER(LEFT(C15,1))&amp;RIGHT(C15,LEN(C15)-1)&amp;$B$2</f>
@@ -7688,10 +8046,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D16" s="18" t="str">
         <f>$B$1&amp;B16&amp;UPPER(LEFT(C16,1))&amp;RIGHT(C16,LEN(C16)-1)&amp;$B$2</f>
@@ -7702,7 +8060,7 @@
         <v>task/addtask</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
